--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -351,6 +351,47 @@
     <t>开盘不久即放量下跌，午后随大盘反弹略有回升，并一直维持在13.35左右。14:55时，当股价跌破 13.3 时，出现放量拉伸的护盘迹象。由此推断 13.3 是个支撑位。
 这股最近有个特点，临近收盘时总会放量上攻。
 看到今天的走势，很欣慰昨天没有因为看其涨势良好而追它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春高新</t>
+  </si>
+  <si>
+    <t>北京城建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>一改前几日的疲软走势，出现逆市上行的局面，并在13:30时，突然放量上攻，但最终受大盘跳水牵连，落回开盘价附近。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早盘还有放量拉伸，走势强于大盘，但在大盘跌破3000点大关后，也是溃不成军，一泻千里。13.4的支持，也毫无力量。
+这一次在尾盘再没有出现放量上攻的形势了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得</t>
+  </si>
+  <si>
+    <t>胳膊果然拗不过大腿，哪只股也没办法无视大盘的压力。认清大盘的趋势，远远要比分析个股更重要。上周在看到大盘走势不好，却沾沾自喜于个股的涨势，是非常幼稚的想法。以后要以大盘为重，谨慎分析形势。
+今天跌破3000，我在卖与不卖中犹豫了，可能明天我会为我今天的迟疑而付出惨痛的代价，这次就认输吧。明天看情况抛出自己手里的股票，等待新一轮买点的来临吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低开低走，在13:30、14:00时，两次跌至3000点后艰难回升，最终在14:30时，跌破3000点大关，之后放量下跌，市场恐慌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早盘横盘，走势强于大盘。并在11:00时，借大盘回升时机冲高。但午后，13:30时，大盘第一次接近3000点关口时，价格就已跌破106支撑。而后在14:30时，大盘真正跌破3000点关口后，放量下跌愈演愈烈，溃不成军，一发不可收拾。
+在早盘震荡的过程中，成交量凌乱，没有整体拉伸的节奏感，反应出了多空双方的矛盾心态。
+当跌破上此次支撑位的 106 时，我心存侥幸；当跌破3000点关口时，我有卖掉的冲动；当价格跌破104时，我更有卖的冲动。但最终我还是没有卖掉，我依然对明天的走势心存侥幸，而且，跌到这个地步。已谈不上什么盈利，保证自己不赔钱就可以了。倘若明天再跌，果断的卖个保本价就行了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,9 +793,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
@@ -1346,6 +1389,61 @@
         <v>39</v>
       </c>
     </row>
+    <row r="29" spans="1:4" ht="28.5">
+      <c r="A29" s="5">
+        <v>42639</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1622.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="128.25" outlineLevel="1">
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57" outlineLevel="1">
+      <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" outlineLevel="1">
+      <c r="B32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="57" outlineLevel="1">
+      <c r="B33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -392,6 +392,66 @@
     <t>早盘横盘，走势强于大盘。并在11:00时，借大盘回升时机冲高。但午后，13:30时，大盘第一次接近3000点关口时，价格就已跌破106支撑。而后在14:30时，大盘真正跌破3000点关口后，放量下跌愈演愈烈，溃不成军，一发不可收拾。
 在早盘震荡的过程中，成交量凌乱，没有整体拉伸的节奏感，反应出了多空双方的矛盾心态。
 当跌破上此次支撑位的 106 时，我心存侥幸；当跌破3000点关口时，我有卖掉的冲动；当价格跌破104时，我更有卖的冲动。但最终我还是没有卖掉，我依然对明天的走势心存侥幸，而且，跌到这个地步。已谈不上什么盈利，保证自己不赔钱就可以了。倘若明天再跌，果断的卖个保本价就行了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上涨时的支撑位，就是下跌时的止损位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地位震荡，14:30后开始跳水，但14:50受到支撑后略有放量回升。微跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从开盘就一直在下跌，盘中出现多比放量卖单。13:20时，出现一笔103元，700多手的内盘，但随后股价随大盘起稳，而回升。尾市跳水及反弹阶段，依然有不少大单内盘存在。
+看到尾盘跳水后起稳，而该股依然在下跌。出于对昨日其尾市上涨的信心，果断的买了两手，本来盘上显示的卖价是103.15但按此价提交后，却发现以103.07成交。有可能是我这软件反应比较慢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后随大盘下跌，10:05至10:20随大盘的反弹，又一波上涨，此过程中，发现13.4处有交大量的卖单。随后随大盘一直下跌，在13:10时，出现一笔巨量内盘，之后，价格随大盘回升，乃至尾盘跳水时，其价格依然稳定在13.3左右，并在12.24出现了大量的买单。然大盘企稳时，它却跌破了13.3，在13.26处即出现了大量的买盘，也出现了大量的卖盘。
+它的尾盘拉升的风格不见了，哪怕在尾盘企稳回升时，它也没借助这个机会上攻。
+11:00，看着大盘持续下跌，毫无起色，加之13.4处的大量卖单，我决心卖掉它，担心被套牢。早上卖它时，我压根没想到下午大盘走势会反弹向上，当下午大盘反弹后，我几次想追进去，但苦于它的价格一直不下来，而长春高新的价格却落得比较多，所以在长春高新和它之间犹豫不绝，不知该买哪个。最终在其价格纠结不下来，而长春高新跌幅较大的情况下，我选择了长春高新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京城建</t>
+  </si>
+  <si>
+    <t>股市每天都充满着风险，每天也充满着机会。今早卖股，赔了几十元钱，有点不开心，但在那时那刻，谁又能料定下午的反弹？在看到情况不利时快速做出反应是没错的，而今的大盘我并不看好，但又总担心错过机会，所以每次操作都如同火中取栗一般，战战兢兢，如履薄冰。时刻都应该提高警惕，不能有一丝一毫的懈怠。其实我的反应还是有些慢了，还是有太多的侥幸心理作祟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低开低走，尾市突然发力上攻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到大盘继续下跌，我果断卖出了手上所有的股票，因为我觉得大盘没戏了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘冲高后回落，盘中出现多笔大量卖盘，在尾市大盘反弹时，也随即迅速拉升，上行基本无阻力。
+在看到早盘冲高回落，加之大盘的跌势，使我觉得已经走入了熊市，于是我将它，连同我所持有的其余股票都卖了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早盘出现阶梯式上涨，但在13.36附近三次放量上攻无果，而且在13.4处出现了两万余手的卖单，上涨压力很大。之后随大盘下跌，尾盘亦随大盘上涨。在大盘尾市上涨时，也有内盘借机放量出货，抑制了股价的飙升。
+卖完所有的股票，我心有不甘，更担心自己踏空错过机会。尤其想到这股有尾盘拉升的习惯，所以，虽然有不是大量的卖盘，但看到价格依然能维持在13.2上方，而且大盘也稍有回转之时，我将所有的钱都买它，赌它的尾盘拉伸。结果它尾盘拉伸的有点吃力，但大盘却奇迹般的冲高了。就连早上卖掉的长春高新，都比它涨得多。不过这次买入，至少证明我没有错过机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京城建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +853,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1389,7 +1449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5">
+    <row r="29" spans="1:4" ht="28.5" collapsed="1">
       <c r="A29" s="5">
         <v>42639</v>
       </c>
@@ -1403,7 +1463,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="128.25" outlineLevel="1">
+    <row r="30" spans="1:4" ht="128.25" hidden="1" outlineLevel="1">
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
@@ -1414,7 +1474,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57" outlineLevel="1">
+    <row r="31" spans="1:4" ht="57" hidden="1" outlineLevel="1">
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
@@ -1425,7 +1485,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" outlineLevel="1">
+    <row r="32" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
       <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
@@ -1436,12 +1496,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="57" outlineLevel="1">
+    <row r="33" spans="1:4" ht="57" hidden="1" outlineLevel="1">
       <c r="B33" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" collapsed="1">
+      <c r="A35" s="5">
+        <v>42640</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1333.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="42.75" hidden="1" outlineLevel="1">
+      <c r="B36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="99.75" hidden="1" outlineLevel="1">
+      <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" collapsed="1">
+      <c r="A39" s="5">
+        <v>42641</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1164.4000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="156.75" hidden="1" outlineLevel="1">
+      <c r="B41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -407,17 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从开盘就一直在下跌，盘中出现多比放量卖单。13:20时，出现一笔103元，700多手的内盘，但随后股价随大盘起稳，而回升。尾市跳水及反弹阶段，依然有不少大单内盘存在。
-看到尾盘跳水后起稳，而该股依然在下跌。出于对昨日其尾市上涨的信心，果断的买了两手，本来盘上显示的卖价是103.15但按此价提交后，却发现以103.07成交。有可能是我这软件反应比较慢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开盘后随大盘下跌，10:05至10:20随大盘的反弹，又一波上涨，此过程中，发现13.4处有交大量的卖单。随后随大盘一直下跌，在13:10时，出现一笔巨量内盘，之后，价格随大盘回升，乃至尾盘跳水时，其价格依然稳定在13.3左右，并在12.24出现了大量的买单。然大盘企稳时，它却跌破了13.3，在13.26处即出现了大量的买盘，也出现了大量的卖盘。
-它的尾盘拉升的风格不见了，哪怕在尾盘企稳回升时，它也没借助这个机会上攻。
-11:00，看着大盘持续下跌，毫无起色，加之13.4处的大量卖单，我决心卖掉它，担心被套牢。早上卖它时，我压根没想到下午大盘走势会反弹向上，当下午大盘反弹后，我几次想追进去，但苦于它的价格一直不下来，而长春高新的价格却落得比较多，所以在长春高新和它之间犹豫不绝，不知该买哪个。最终在其价格纠结不下来，而长春高新跌幅较大的情况下，我选择了长春高新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京城建</t>
   </si>
   <si>
@@ -453,6 +442,97 @@
   <si>
     <t>北京城建</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从开盘就一直在下跌，盘中出现多比放量卖单。13:20时，出现一笔103元，700多手的内盘，但随后股价随大盘起稳，而回升。尾市跳水及反弹阶段，依然有不少大单内盘存在。
+看到尾盘跳水后起稳，而该股依然在下跌。出于对昨日其尾市上涨的信心，果断的买了两手，本来盘上显示的卖价是103.15但按此价提交后，却发现以103.07成交。有可能是我这软件反应比较慢。
+这次的超买超卖，使我发现，由于竞价规则对买家有利，所以系统的成交明细里只显示超卖信息，而没有显示超买信息。如此看来，在盘中看到的很多放量内盘，不一定真的是放量下跌，庄家可借助这个规则演戏给人看。这也是最近几天我一直纳闷为什么经常看到许多放量内盘的出现，但股价却没有相应下跌的原因。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后随大盘下跌，10:05至10:20随大盘的反弹，又一波上涨，此过程中，发现13.4处有交大量的卖单。随后随大盘一直下跌，在13:10时，出现一笔巨量内盘，之后，价格随大盘回升，乃至尾盘跳水时，其价格依然稳定在13.3左右，并在12.24出现了大量的买单。然大盘企稳时，它却跌破了13.3，在13.26处即出现了大量的买盘，也出现了大量的卖盘。
+它的尾盘拉升的风格不见了，哪怕在尾盘企稳回升时，它也没借助这个机会上攻。但在尾盘跳水时，我分明看到许多卖单，突然的消失，而后股价突然上升，成交明细里却没有被买掉的成交记录，怀疑那些买单都是庄家自己的，他在利用撤单维持股价不下跌。从这个小动作上，我怀疑庄家已经囤积不少货了。
+11:00，看着大盘持续下跌，毫无起色，加之13.4处的大量卖单，我决心卖掉它，担心被套牢。早上卖它时，我压根没想到下午大盘走势会反弹向上，当下午大盘反弹后，我几次想追进去，但苦于它的价格一直不下来，而长春高新的价格却落得比较多，所以在长春高新和它之间犹豫不绝，不知该买哪个。最终在其价格纠结不下来，而长春高新跌幅较大的情况下，我选择了长春高新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄家也无法预测大盘的走势
+保本价的算法应保证赚够下次买入的手续费
+同时超买超卖时，系统显示的是超卖值，所以放量内盘不是太可信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小幅高开，10:25冲上3000点关口，之后渐渐回落，最后收于3000点下方。微涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秦铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京城建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期一直随大盘波动。在10:27时，当大盘向3000点冲刺的时候，该股在13.28价位处积累了8千多手的巨量卖单，看情况本以为阻力很大，难以逾越3.28这一界限，没想却被一笔外盘通吃，而后随大盘持续飙升至13.33处，然此处虽没有大量的卖单，可主力再无拉升。之后价格一直在13.3上下徘徊，而且在13.32、13.33、13.34处分别堆积了8千、1万2、5千手卖单，看形势上方阻力巨大已上涨无望，但在14:18时，突然一笔1万手外盘通吃了13.32的卖单，上方阻力只剩5000手13.33和5000手13.34的卖单。在14:22时，又一笔7千手外盘通吃了13.33的卖单，之后主力放量猛攻，在14:30时冲破13.6的位置，随后停止上攻。由于大盘萎靡下行，该股价也渐渐回落至13.52处收盘。
+因为账户还有点余钱，联想到昨天它撤单拉价的小动作，故决定今天买入它，在大盘第一次冲上3000点时，我就以13.33的价格买了它，但没想随后它一直在13.30的位置上下浮动，悔恨自己有点操之过急。而更没想到，它会吃掉那么大笔的卖单拉升股价。我想那些大笔的卖单，如果真的想卖，为什么不现价卖掉，而要卡在那个价位唬人呢？而且订单数量明显异于其它价位的数量。由此我猜测，那些卖单应该都是庄家自己的货，他在自己卖自己买！这样既有了量价的配合，同时也给其它买入者以压力，使人不敢买入。这绝对是一支庄股，关键是接下来，庄家是出逃呢？还是继续拉伸呢？
+从结果上看，在庆幸今天把余钱买了它的同时，也后悔昨天把它给卖了。但更气愤今天没有耐心买得太早了，同时也迷茫明天该不该卖掉它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天奇迹般的大涨了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与大盘走势雷同，冲高后回落。
+一直期待能随大盘上涨，在104.1的保本价上犹豫很久，但还是没有卖掉，期待着尾盘大盘的惊喜，但最终结果还是令我失望。还不如早点卖了买北京城建呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天有很多值得我后悔的地方，回想这两天的操作，才意识到交易还是不能太频繁，不然每次都只赚的手续费。在股价下跌时应该有点预期有点信心，虽然很不确定，但眼光还是应该再看得远一点，要相信自己的直觉。
+虽然可以避免套牢，但这样敏感的操作，既体现出了自己的不稳重，也赚不了大钱。必须调整自己的操作方式，锻炼自己的心理素质，要稳得住，赔得起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小幅微涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40~9:50时拉伸至104.2以上，10:15时放量拉伸至104.8以上。随后逐渐下滑，11:06和11:13时分别出现150和100手的内盘打压。下午14:15以后，成交活跃起来，有大量的内盘，也有大量的外盘，但依然不改下滑趋势，最终收于103.88
+设置保本价位104.1，但今天多次跌破该价位时，我都不忍卖掉它。由此看出我经验还很不成熟，买卖间的分寸还很难拿捏。不要让自己太敏感，或许也是件好事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走势与大盘雷同，强于大盘。10:00时放量拉伸至13.6，午后放量拉伸至13.7。拉价迹象明显。
+走势良好，但国庆期间全国各地出台了许多抑制房价过快增长的政策，不知是否会影响该股的走势。虽然我也不清楚庄家是在出货还是在囤货，但我不会因为抑制房价的不利消息，就卖掉该股。拭目以待。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定要稳要慢，不着急，不敏感，哪怕最终赔钱了也要愿赌服输。炒股必须具备这样一颗冷静的心。</t>
   </si>
 </sst>
 </file>
@@ -853,10 +933,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1520,7 +1600,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="10">
         <v>1333.7</v>
@@ -1528,10 +1608,10 @@
     </row>
     <row r="36" spans="1:4" ht="42.75" hidden="1" outlineLevel="1">
       <c r="B36" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" s="10">
         <v>0.75</v>
@@ -1539,10 +1619,10 @@
     </row>
     <row r="37" spans="1:4" ht="99.75" hidden="1" outlineLevel="1">
       <c r="B37" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="10">
         <v>1.6</v>
@@ -1550,10 +1630,10 @@
     </row>
     <row r="38" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B38" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" collapsed="1">
@@ -1570,23 +1650,23 @@
         <v>1164.4000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:4" ht="128.25" hidden="1" outlineLevel="1">
       <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D40" s="10">
         <v>0.87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="156.75" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:4" ht="185.25" hidden="1" outlineLevel="1">
       <c r="B41" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D41" s="10">
         <v>0.53</v>
@@ -1597,7 +1677,114 @@
         <v>46</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" hidden="1" outlineLevel="1">
+      <c r="B43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" collapsed="1">
+      <c r="A44" s="5">
+        <v>42642</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1227.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="228" hidden="1" outlineLevel="1">
+      <c r="B46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B48" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" collapsed="1">
+      <c r="A49" s="5">
+        <v>42643</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1127.9000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="85.5" hidden="1" outlineLevel="1">
+      <c r="B50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B52" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -533,6 +533,123 @@
   </si>
   <si>
     <t>一定要稳要慢，不着急，不敏感，哪怕最终赔钱了也要愿赌服输。炒股必须具备这样一颗冷静的心。</t>
+  </si>
+  <si>
+    <t>开盘一小时内，持续上行，成交活跃，量也很大。随后缩量横盘。在13:15时，又一次放量猛攻至 110 处，随后一直在110上方运行。在尾市价格升至111元的时候，成交再次活跃起来，看来这个价位，多空双方的争议还是有点大。最终在111元处收盘，换手率创近一个月内新高。
+跟北京城建比起来，它显得稳定得多，每次上攻都很有节奏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受国庆期间国家出台的房价调控政策影响，在今天全盘大涨的今天，它开盘即跌了4%，把前几天好不容易涨上去的都跌回来。开盘后15分钟，就跌破了13元大关，不到30分钟就跌破了12.9元。在10:30分之后随大盘的回升逐步企稳，之后价格一直徘徊在13元上方。尾盘略有拉伸，收至13.13。
+开盘价已经跌破了我的止损价，我卖还是不卖？想到自己是做长线的，想到它是一只庄股，而且大盘今天大涨，我对它也还有信心，所以我选择暂时观望一下，不急于卖掉。但事实没有给我太多考虑的时间，开盘不到15分钟就跌倒了13元，亏损已经是不争的事实了。没想到国家的政策对它影响会这么大。是我大意了。
+那继续问自己同样的问题：卖还是不卖？看着今天所有的股都在涨，它一定不甘心吧，而且它向来有尾盘突然拉伸的习惯，很可能最后会收出一根长长的下引线，想到这里，我想把长春高新全部卖掉，买成它，赌一赌尾盘的瞬间拉伸。但长春高新今天的走势实在太好了，我不忍心卖掉它，再买股，我已经没钱了。看看自己的银行卡，因为国庆给妈妈买了很多衣服，现在账上也只有3千元钱，前一阵拜托大舅帮我买衣服，很可能还要给他还两千多元钱。所以我已经没钱买股了，总觉得它今天的大跌是一个买股的机会，不想错过。于是想到自己的微信钱包里还有1千多，虽然很排斥微信转账要的交手续费，但为了不错过我认为的这次机会，我还是把微信钱包的钱也转了出来。留了给大舅还的两千元，其余的三千我全部转入股市。适时早上十点多，价格12.9，我忍了忍，决定下午14点以后再买股。就赌它尾盘的神经病拉伸。如果赌错了，没有拉伸，明天赔钱，我也要卖了它。
+买上它后，迟迟不见尾盘的拉伸。在离收盘5分钟的时候，才终于陆续见到几千手的外盘，但同时也看到了几千手的内盘。尾盘算是象征性的拉了一下，但是远远没我预计的理想。宝宝不是很开心，实在不行明天还是把它卖了吧。可卖了它，还有另一个问题摆在我面前：大盘开涨了，所有股都已经启动了，房地产股因为国家政策而被抑制，但除了房地产，追其它的股，风险显然要大得多，我又该买哪只才好呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秦铁路</t>
+  </si>
+  <si>
+    <t>又一次高开后横盘。可以确定最近的支撑位是在6.2左右。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方园林</t>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现放量内盘，却不见价格下跌，这很可能是庄家玩的把戏，故意做空唬人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一路高开高走，势如破竹，无人能挡。在9:35、10:10、10:20、11:25时，分别出现放量上攻，尾盘成交量再次放大，但价格并无太大变化。收盘时最后一笔交易是一笔1万手的内盘，但价格也并未因此而下跌。
+国庆期间，爸爸给我介绍的一只股。亮点在于它每年的高转增和良好的盈利预期。看到它今天强劲的走势，可以考虑把北京城建换成它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开后震荡上行，微涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门红，高开后略微下探，随后企稳上行，午后一直在3040点左右徘徊。大涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京城建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秦铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方园林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘冲高后回落，在111处徘徊了一整天。横盘震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开后回落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘冲高后回落，在13.05处徘徊了一整天。横盘震荡
+还是没有期盼到预期的上涨，但在大盘上涨的情况下，能维持在 13 元上方，我还勉强能够接受。但绝不会在该股上继续投钱了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京城建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秦铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方园林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开低走，10:15时放量下跌，随后一直低位横盘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横盘震荡，尾盘放量拉伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随大盘上午下跌，下午回升。上午出现多笔大单内盘，下午偶尔有几笔不太大的外盘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后持续下跌，10:45时，一笔7千手的外盘，也没能止住下跌的趋势，直至午后大盘回升，才随大盘上行。但尾盘时却又突然下跌。
+以往尾盘拉升的气势现在去了哪里呢？难道庄家已经出逃了？赔了不少了，唯一拿它的借口是：下跌时的成交量还不算大，大盘依然没走坏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午下跌，下午回升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -933,10 +1050,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1787,6 +1904,250 @@
         <v>82</v>
       </c>
     </row>
+    <row r="53" spans="1:4" collapsed="1">
+      <c r="A53" s="5">
+        <v>42653</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1755.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="10">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="299.25" hidden="1" outlineLevel="1">
+      <c r="B55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="10">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B58" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" collapsed="1">
+      <c r="A59" s="5">
+        <v>42654</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1837.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B61" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B62" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B63" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5">
+        <v>42655</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1599.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1">
+      <c r="B65" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1">
+      <c r="B66" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1">
+      <c r="B67" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1">
+      <c r="B68" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="10">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1">
+      <c r="B70" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1">
+      <c r="B71" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1">
+      <c r="B72" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1">
+      <c r="B73" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" collapsed="1">
+      <c r="A74" s="5">
+        <v>42657</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1637.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B75" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B76" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B77" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="10">
+        <v>4.03</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -403,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地位震荡，14:30后开始跳水，但14:50受到支撑后略有放量回升。微跌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京城建</t>
   </si>
   <si>
@@ -615,22 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长春高新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京城建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大秦铁路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方园林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高开低走，10:15时放量下跌，随后一直低位横盘。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,6 +629,94 @@
   </si>
   <si>
     <t>上午下跌，下午回升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一路上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随大盘高开低走，当大盘跌破3080点时，它表现很脆弱，立即出现大量内盘，同时价格跌破了110关口。以至于尾市大盘反弹回3080点上方，它已然没有了士气，继续下挫，还有大量的内盘不断涌出。
+看到它跌破 110，我也开始犹豫是不是应该获利了结了。盘中感觉其信心不是很足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开低走，尾市略有反弹
+这样的走势，让我实在不确定未来大盘是涨是跌。但为了赚钱，我还是对未来充满信心的。万一跌下来，只要自己溜得快，损失应该不会太大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国神华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随大盘高开低走，当大盘跌破3080点时，出现大单内盘。尾市小幅回升。
+自国庆大跌以后，持续了近 6 天的缩量横盘格局，而且越横越低。昨天大盘大涨，它也没有任何起色。今天大盘高开后，终于看见一点起色。但价格在涨到13.2时上方随无太大阻力，但却停止了上攻。分明看到13.18的卖盘被渐渐蚕食殆尽准备上攻时，突然13.18处又多了许多卖盘，快被蚕食殆尽时，又看到许多卖盘。这样一点点的放货不像是拉伸的行为。在如此一路跌到13.14附近时亦有如此放货的迹象。看到盘中的此种行迹，我心中略感不安，加之国家政策对房地产的不利因素，我便也割肉了结了。
+因为这支股有尾盘拉伸的习惯，所以本打算等下午收盘前卖的，但现在庆幸今天卖得早，不然到尾盘又要多亏损 1%了。感觉最近这段时间，买什么股都比买房地产股强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随大盘高开低走，当大盘跌破3080点时，也出现了恐慌，在14:30时，更出现了7000手的大内盘。直至尾市大盘反弹，跌势才有所回稳。
+不知为何最近银行股普通都在下跌，哪怕昨天大盘大涨，也没见它们有太大的起色。似乎房地产行情不好，对银行的影响也不小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当看到卖盘的量蚕食后又增加，蚕食后又增加的情况，很可能是庄家在悄悄出货。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天它大涨了两个百分点，今天继续高开，但最终也随大盘下跌，尾市在大盘跌破3080时，表现平稳，但回升也不大。昨天和今天的换手率创了近两个月的新高，同时价格也创了近两个月的新高。
+卖掉北京城建后，不舍得浪费手中的资金，在它和招商银行之间比较后，虽然银行股最近跌的比较多，是个买入的时机，但它涨势也很好，到底是买涨还是买跌？犹豫半天之后，决定买涨。于是今天我买了它。
+买股买在高点，风险还是极大的，加之大盘最近不太稳定，我必须小心操作，控制好风险，不要赔得太多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低位震荡，14:30后开始跳水，但14:50受到支撑后略有放量回升。微跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手头的闲钱，总也拿不住。其实就今天这微妙的形势，理应持币观望，可我还是忍不住买了股。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前日大涨，冲破3100大关，昨日震荡，今日低开后震荡下行。</t>
+  </si>
+  <si>
+    <t>前日随大盘大涨7%，冲破17元关口。昨日横盘震荡，依然保持在17元上方。今日低开后跌破17元，随后在17元位置徘徊一整天。走势略强于大盘。
+今日换手率不到前日大涨时换手率的一半。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在114元附近，横盘震荡一整天，买单卖单之间价格差距很大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午保持上涨趋势，午后开始下挫，在14:23时出现6000手6.8元的内盘，但之后价格依然维持在6.8元上方，在14:50左右先后出现3000手和2000手的外盘，将价格支撑在6.8上方。
+今日换手率，仅有前两日大涨时换手率的1/3。6.8元应该是最近阶段的一个支撑位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近几日走势并未随大盘上涨而有过强的表现，虽然近几日均价已从13元提升到13.2元附近，但换手率持续低迷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,10 +1118,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1717,7 +1785,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="10">
         <v>1333.7</v>
@@ -1725,10 +1793,10 @@
     </row>
     <row r="36" spans="1:4" ht="42.75" hidden="1" outlineLevel="1">
       <c r="B36" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10">
         <v>0.75</v>
@@ -1736,10 +1804,10 @@
     </row>
     <row r="37" spans="1:4" ht="99.75" hidden="1" outlineLevel="1">
       <c r="B37" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="10">
         <v>1.6</v>
@@ -1747,10 +1815,10 @@
     </row>
     <row r="38" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" collapsed="1">
@@ -1761,7 +1829,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D39" s="10">
         <v>1164.4000000000001</v>
@@ -1772,7 +1840,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="10">
         <v>0.87</v>
@@ -1780,10 +1848,10 @@
     </row>
     <row r="41" spans="1:4" ht="185.25" hidden="1" outlineLevel="1">
       <c r="B41" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="10">
         <v>0.53</v>
@@ -1794,15 +1862,15 @@
         <v>46</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="42.75" hidden="1" outlineLevel="1">
       <c r="B43" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" collapsed="1">
@@ -1810,10 +1878,10 @@
         <v>42642</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="10">
         <v>1227.3</v>
@@ -1821,10 +1889,10 @@
     </row>
     <row r="45" spans="1:4" ht="57" hidden="1" outlineLevel="1">
       <c r="B45" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="10">
         <v>0.43</v>
@@ -1832,10 +1900,10 @@
     </row>
     <row r="46" spans="1:4" ht="228" hidden="1" outlineLevel="1">
       <c r="B46" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="10">
         <v>1.3</v>
@@ -1843,10 +1911,10 @@
     </row>
     <row r="47" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="10">
         <v>0.39</v>
@@ -1854,10 +1922,10 @@
     </row>
     <row r="48" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
       <c r="B48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4" collapsed="1">
@@ -1868,7 +1936,7 @@
         <v>34</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="10">
         <v>1127.9000000000001</v>
@@ -1876,10 +1944,10 @@
     </row>
     <row r="50" spans="1:4" ht="85.5" hidden="1" outlineLevel="1">
       <c r="B50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="D50" s="10">
         <v>0.43</v>
@@ -1887,10 +1955,10 @@
     </row>
     <row r="51" spans="1:4" ht="57" hidden="1" outlineLevel="1">
       <c r="B51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="10">
         <v>1.76</v>
@@ -1898,10 +1966,10 @@
     </row>
     <row r="52" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:4" collapsed="1">
@@ -1912,7 +1980,7 @@
         <v>34</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="10">
         <v>1755.2</v>
@@ -1920,10 +1988,10 @@
     </row>
     <row r="54" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
       <c r="B54" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" s="10">
         <v>2.68</v>
@@ -1931,10 +1999,10 @@
     </row>
     <row r="55" spans="1:4" ht="299.25" hidden="1" outlineLevel="1">
       <c r="B55" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="10">
         <v>1.87</v>
@@ -1942,10 +2010,10 @@
     </row>
     <row r="56" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D56" s="10">
         <v>0.38</v>
@@ -1953,10 +2021,10 @@
     </row>
     <row r="57" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
       <c r="B57" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="10">
         <v>3.41</v>
@@ -1964,10 +2032,10 @@
     </row>
     <row r="58" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B58" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" collapsed="1">
@@ -1975,10 +2043,10 @@
         <v>42654</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="10">
         <v>1837.9</v>
@@ -1986,10 +2054,10 @@
     </row>
     <row r="60" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B60" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="10">
         <v>1.4</v>
@@ -1997,10 +2065,10 @@
     </row>
     <row r="61" spans="1:4" ht="57" hidden="1" outlineLevel="1">
       <c r="B61" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="10">
         <v>0.87</v>
@@ -2008,10 +2076,10 @@
     </row>
     <row r="62" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B62" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="10">
         <v>0.28999999999999998</v>
@@ -2019,133 +2087,217 @@
     </row>
     <row r="63" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B63" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" s="10">
         <v>2.92</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" collapsed="1">
       <c r="A64" s="5">
-        <v>42655</v>
+        <v>42657</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D64" s="10">
-        <v>1599.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" outlineLevel="1">
+        <v>1637.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B65" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B67" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="10">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" outlineLevel="1">
-      <c r="B66" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" outlineLevel="1">
-      <c r="B67" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="D67" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" outlineLevel="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B68" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D68" s="10">
-        <v>3.81</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5">
-        <v>42656</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" outlineLevel="1">
+        <v>42661</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1960.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="57" collapsed="1">
+      <c r="A70" s="5">
+        <v>42662</v>
+      </c>
       <c r="B70" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="1">
+        <v>106</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1974.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="57" hidden="1" outlineLevel="1">
       <c r="B71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="142.5" hidden="1" outlineLevel="1">
+      <c r="B72" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" outlineLevel="1">
-      <c r="B72" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" outlineLevel="1">
+      <c r="C72" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="99.75" hidden="1" outlineLevel="1">
       <c r="B73" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" collapsed="1">
-      <c r="A74" s="5">
-        <v>42657</v>
+        <v>110</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B74" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D74" s="10">
-        <v>1637.9</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B75" s="8" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B76" s="8" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" outlineLevel="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" collapsed="1">
+      <c r="A77" s="5">
+        <v>42669</v>
+      </c>
       <c r="B77" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="10">
+        <v>2157.6999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B80" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" outlineLevel="1">
-      <c r="B78" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="10">
-        <v>4.03</v>
+      <c r="C80" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" hidden="1" outlineLevel="1">
+      <c r="B81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -717,6 +717,74 @@
   </si>
   <si>
     <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早盘冲高至3130点后回落，午盘在3110点左右震荡，尾盘跌破3110点。微跌。盘中三次跌至3105点时反弹回升，但尾盘时终于跌破了3105点，震荡格局被打破。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横盘震荡。在11:08时出现急剧放量下跌，此时大盘刚刚止跌企稳。午后大盘下挫，而该股却在逐步回升。尾盘当大盘跌破3105后，该股也再次出现急剧下跌，但立刻又被拉升回来。
+盘中感觉多空双方争执激烈，但成交量却在继续萎缩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘即出现放量下跌，但随后又迅速回升到昨日收盘位置，并一直保持横盘震荡。没有受到尾市跳水的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在开盘价上方横盘震荡，尾盘略有下挫。微涨。成交量比昨日略有放大，没有受到大盘下挫的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与大盘走势雷同，高开后低走，但尾盘却又一次出现了强有力的放量拉升。
+日线走势渐渐企稳，不知怎的，看到它近几日的走势，我又觉得它有机会了。如果我现在还有钱的话，真想再买点它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低开下跌后回升。微跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后冲高回落，午后下探再回升，整体呈横盘震荡格局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与大盘走势雷同，微跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直在 13.25 附近横盘震荡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后持续上涨，无视大盘的跌势。盘中多次出现放量拉伸，当天成交量相较其它时期，也很可观。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后上涨，至10:25时，公有两波放量上攻，随后开始下滑。至10:50时，跌至17元，而后又掉头上涨，并在11:10和13:01时，出现两次放量上攻。直至13:30时，成交量虽无放大，但价格却突然下跌，幅度很大，而后开始震荡下挫。至14:29时，出现一笔放量的内盘，价格跌破了17.1。
+尾盘的反应比大盘脆弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘震荡后，逐步下跌，至13:25左右突然出现两笔上万手的内盘，股价也随着跌至最低点。而后渐渐回升。微跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后上涨，基本无阻力，分别在9:55、10:05、10:12时放量拉伸，至10:44时到达最高点，随后开始下跌，中间共出现三次放量下跌，值11:18时，再次开始回升上行，并在13:30左右出现几次放量。14:40时，突然下跌到118.8附近震荡。
+尾盘的反应比大盘脆弱，换手率依然很大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直横盘震荡，保持在开盘价上方。尾盘再次出现当天最大量外盘，但拉伸效果不明显。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10度慢牛格局，逐步平稳上涨。微涨。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,11 +1186,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
@@ -2289,7 +2355,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" outlineLevel="1">
+    <row r="81" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B81" s="8" t="s">
         <v>7</v>
       </c>
@@ -2298,6 +2364,180 @@
       </c>
       <c r="D81" s="10">
         <v>0.63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="28.5" collapsed="1">
+      <c r="A82" s="5">
+        <v>42671</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="10">
+        <v>2125.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B83" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B85" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="10">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" collapsed="1">
+      <c r="A87" s="5">
+        <v>42674</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1784.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="10">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B90" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B91" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" collapsed="1">
+      <c r="A92" s="5">
+        <v>42675</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="10">
+        <v>1958.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B94" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="10">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B95" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -787,6 +787,51 @@
     <t>10度慢牛格局，逐步平稳上涨。微涨。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>开盘后在昨日收盘线上方震荡，午盘即将休市时突然发力上攻。下午看盘后震荡下行，尾市小幅回升。微涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日该股逆市大涨4%，今日低开低走，午后一路下挫，成交量逐步放大，呈放量下跌之势。，大跌3%。
+不知是何缘故，今日煤炭股大跌。昨天涨的，今天都跌回来了。我的盈利也萎缩了不少，但依然是赚钱的。终于发现在盈利10%以上时，面对股价的下跌，和没有盈利的情况下面对股价的下跌，心态是截然不同的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已连续下跌两天，今日大幅度横盘震荡，换手率与前两日持平。分别在10:30和14:05时放量跌破119关口，但随后又迅猛收起。其中在13:25时达今日顶峰120.5处。
+119的关口昨日既冲破一次，今日又冲破两次，据我的经验，一个支撑位如果连续受到考验，最终必将冲破。再跌破119，我或许也应该战术性的卖掉它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在盈利10%以上时，面对股价的下跌，和没有盈利的情况下面对股价的下跌，心态是截然不同的。
+一个支撑位如果连续受到考验，最终必将冲破。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后放量冲高，但午盘后，因大盘不断下挫，而一直维持在6.9上方震荡。成交量较前几日略有放大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在昨日收盘价下方震荡。走势与长春高新类似，震荡的整幅较大。并分别在10:33和13:47放量触底，但都经接着迅速反弹回去。成交量较前段时间无明显变化。
+好几日没再关注该股，今天一看日线，已明显呈现熊市特征：顶再顶下。而其几次震荡的底部却始终维持在12.9上方。但我相信，这样不断考验该价位，最终一定会被跌破的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后横盘，午后一开盘就放量拉升，当天很突出的一笔大单外盘。随后在拉升后的相对高位继续横盘。
+前几日银行股一直在下跌，但最近有回升迹象，且成交量相对前段时间，有所放大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -854,7 +899,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +931,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,9 +1234,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
@@ -2540,6 +2590,83 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
+    <row r="97" spans="1:4" collapsed="1">
+      <c r="A97" s="5">
+        <v>42682</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="10">
+        <v>2215.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B99" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="10">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B100" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B101" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="42.75" hidden="1" outlineLevel="1">
+      <c r="B102" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B103" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/G/记/2016.xlsx
+++ b/G/记/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -784,10 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10度慢牛格局，逐步平稳上涨。微涨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开盘后在昨日收盘线上方震荡，午盘即将休市时突然发力上攻。下午看盘后震荡下行，尾市小幅回升。微涨。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,6 +826,103 @@
   </si>
   <si>
     <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后下跌，在10:30时出现放量反弹，11:30再次出现放量反弹，两次反弹支撑位都在 17.15附近。午后随大盘反弹急速拉升，冲破了18元关口，但并没能守住。之后大盘虽然在继续攀升，但该股却震荡下滑。微涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后无视大盘的下跌持续上攻，10:30之后连续放量拉升。但11:00后终于受大盘跳水的拖累开始下跌。同样在下午一开盘就就放出单根巨量，开始反弹继续拉升。尾盘略有下挫后，有立即放量反弹回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与大盘走势基本雷同，上午跌，下午回升。同样在13:00时放出单根巨量。13:30以后，股价便基本处于横盘震荡。尾盘再次出现一根巨量，但价格无明显变化。最终收出下引线，略跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘小有上升，而后掉头下跌。并在10:20时出现放量下跌，价格直线跳水。而后继续震荡下行。下午开盘后也放巨量反弹，价格开始回升，14:00后开始横盘震荡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后一直横盘震荡，上午收盘时突然放量下跌。下午开盘后随大盘急速反弹，14:00前后出现放量上攻。14:00以后横盘震荡。微涨。
+这次下跌，依然没有跌破12.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘放量拉至18元再次回落，午后才止跌企稳，艰难回升到昨日收盘处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午震荡下行，多次触及121.8后被放量反弹。午后开始震荡上行，并在14:30以后开始放量上攻，但依然很难攻破123关口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门红，高开后一直横盘，非常稳定。攻上3170点，再创新高。成交量较前期也略有提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开高走，大涨。分别在9:40、10:10、10:20、14:30、14:59时出现放量拉升，上升的虽慢，但却非常稳定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开后拉伸至18.1并一直维持在此处震荡。13:00时出现当天的单根巨量，随后股价逐步下滑。微涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后拉升，并维持在13.15左右震荡。在10:10、13:55时，两次放量上攻13.2未果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后持续下跌，直至中午跌破3100点关口。下午开盘后，瞬间放出天量，由此开始反弹回升。最后收出一根长长的下引线。微跌。
+我是头一次看到大盘的成交量出现单根巨量的情况。我觉得这体现了权重盘坚决维护3100点位的决心。若不是大盘下午果断的反弹，我真会考虑出局的问题了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续上行。又一次在下午开盘时出现单根巨量。午后两次冲击3200点未果。微涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低开高走。午后开盘随大盘出现单根巨量，同时价格冲破18元关口。但随后价格开始震荡下跌，没能站稳18元位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横盘震荡。在11:05时出现放量拉伸，但价格并无明显变化。在14:10时出现放量下跌，股价也一落千丈，但随后立刻恢复回原位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘不久，放量拉升一次。午后连续两次放量拉升，价格冲破13.3关口。但没能站稳，随后又滑落回来。尾盘时有放量拉伸迹象。
+这股又开始活跃了，但从以前买它的经验判断，它的活跃持续不了三天，也很难在高位站稳。庄家逢高出货的可能性较大，我会继续观察它的走势，但不会再炒房地产的股了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后逆势下跌。11:00时出现放量内盘，直至14:00时出现放量外盘，才基本止跌，但并未有所回升。成交量有所放大，大跌。
+在大盘鼓足劲上攻3200点时，该股出现放量下跌，十分奇怪。在大盘走势良好的情况下，我判断该股的行为是刻意在打压股价。所以下午开盘后，我又买了一手。可没想到随后它并没有反弹而是继续下跌，好在午后有所止跌，否则我也会被套住。
+下周开盘，我依然不急于卖掉它。我还是相信大盘会继续走高，但今天冲动捞底也让我知道股票下跌的幅度永远会超出自己的想象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10度慢牛格局，逐步平稳上涨。成交量开始放大。微涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早盘持续走高，在10:50时出现放量拉升。两次冲击7.2关口无果后，午后开始持续下跌。在13:50、14:15、14:55时分布出现放量下跌。最终平盘报收，收出一根很长的上引线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天，中国神华、长春高新、大秦铁路的成交量都比较大，一个大跌，而另两个也都有长长的上引线。感觉情况不是很理想。作为看涨的一方，我不知这仅仅是一个小小的波折还是未来的大隐患。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,11 +1327,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
@@ -2540,7 +2631,7 @@
         <v>34</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D92" s="10">
         <v>1958.3</v>
@@ -2595,10 +2686,10 @@
         <v>42682</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D97" s="10">
         <v>2215.9</v>
@@ -2609,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="11">
         <v>0.26</v>
@@ -2620,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99" s="10">
         <v>1.37</v>
@@ -2631,7 +2722,7 @@
         <v>32</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D100" s="10">
         <v>0.28999999999999998</v>
@@ -2642,7 +2733,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D101" s="10">
         <v>0.81</v>
@@ -2650,10 +2741,10 @@
     </row>
     <row r="102" spans="1:4" ht="42.75" hidden="1" outlineLevel="1">
       <c r="B102" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="D102" s="10">
         <v>0.13</v>
@@ -2661,10 +2752,225 @@
     </row>
     <row r="103" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
       <c r="B103" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="71.25" collapsed="1">
+      <c r="A104" s="5">
+        <v>42683</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D104" s="10">
+        <v>2772.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B105" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B106" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="10">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B107" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B108" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="57" hidden="1" outlineLevel="1">
+      <c r="B109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" collapsed="1">
+      <c r="A110" s="5">
+        <v>42684</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="10">
+        <v>2859.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B111" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B112" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="10">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B113" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="10">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B114" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="10">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" collapsed="1">
+      <c r="A116" s="5">
+        <v>42685</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="10">
+        <v>3437.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="B117" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="10">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="128.25" hidden="1" outlineLevel="1">
+      <c r="B118" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" s="10">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B119" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="10">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B120" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="10">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="71.25" hidden="1" outlineLevel="1">
+      <c r="B121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" s="10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="28.5" hidden="1" outlineLevel="1">
+      <c r="B122" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
